--- a/academias/Química - Estadisticos 20202.xlsx
+++ b/academias/Química - Estadisticos 20202.xlsx
@@ -694,13 +694,13 @@
         <v>30.77</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,25 +717,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>92.68000000000001</v>
+        <v>97.56</v>
       </c>
       <c r="H8">
-        <v>7.32</v>
+        <v>2.44</v>
       </c>
       <c r="I8">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,13 +764,13 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,25 +787,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H10">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -822,25 +822,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>74.29000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="H11">
-        <v>25.71</v>
+        <v>22.86</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -869,13 +869,13 @@
         <v>19.44</v>
       </c>
       <c r="I12">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.44</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,25 +1119,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H7">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
       <c r="I7">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>35.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1154,25 +1154,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>82.93000000000001</v>
+        <v>95.12</v>
       </c>
       <c r="H8">
-        <v>17.07</v>
+        <v>4.88</v>
       </c>
       <c r="I8">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1189,25 +1189,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1224,25 +1224,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>76.92</v>
+        <v>84.62</v>
       </c>
       <c r="H10">
-        <v>23.08</v>
+        <v>15.38</v>
       </c>
       <c r="I10">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1259,25 +1259,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>25.71</v>
       </c>
       <c r="I11">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1294,25 +1294,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>69.44</v>
+        <v>77.78</v>
       </c>
       <c r="H12">
-        <v>30.56</v>
+        <v>22.22</v>
       </c>
       <c r="I12">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>30.56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1381,19 +1381,19 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>38.89</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>61.11</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>67.73999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H3">
-        <v>32.26</v>
+        <v>12.9</v>
       </c>
       <c r="I3">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1568,13 +1568,13 @@
         <v>30.77</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1591,25 +1591,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>92.68000000000001</v>
+        <v>95.12</v>
       </c>
       <c r="H8">
-        <v>7.32</v>
+        <v>4.88</v>
       </c>
       <c r="I8">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1638,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1661,25 +1661,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>87.18000000000001</v>
+        <v>84.62</v>
       </c>
       <c r="H10">
-        <v>12.82</v>
+        <v>15.38</v>
       </c>
       <c r="I10">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1708,13 +1708,13 @@
         <v>25.71</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1731,25 +1731,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>80.56</v>
+        <v>77.78</v>
       </c>
       <c r="H12">
-        <v>19.44</v>
+        <v>22.22</v>
       </c>
       <c r="I12">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.44</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
